--- a/nr_vocabularies/fixtures/resource-types.xlsx
+++ b/nr_vocabularies/fixtures/resource-types.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>code</t>
   </si>
@@ -626,6 +626,147 @@
   </si>
   <si>
     <t>Ostatní</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_5ce6</t>
+  </si>
+  <si>
+    <t>source-code</t>
+  </si>
+  <si>
+    <t>Zdrojový kód</t>
+  </si>
+  <si>
+    <t>Source code</t>
+  </si>
+  <si>
+    <t>source code</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/QH80-2R4E</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>Časopis</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_0640</t>
+  </si>
+  <si>
+    <t>data-paper</t>
+  </si>
+  <si>
+    <t>Data paper</t>
+  </si>
+  <si>
+    <t>článek o datové sadě</t>
+  </si>
+  <si>
+    <t>data paper</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_beb9</t>
+  </si>
+  <si>
+    <t>DataPaper</t>
+  </si>
+  <si>
+    <t>data-management-plan</t>
+  </si>
+  <si>
+    <t>Data management plan</t>
+  </si>
+  <si>
+    <t>data management plan</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_ab20</t>
+  </si>
+  <si>
+    <t>OutputManagementPlan</t>
+  </si>
+  <si>
+    <t>interactive-resource</t>
+  </si>
+  <si>
+    <t>Interaktivní zdroj</t>
+  </si>
+  <si>
+    <t>Interactive resource</t>
+  </si>
+  <si>
+    <t>interactive resource</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_e9a0</t>
+  </si>
+  <si>
+    <t>InteractiveResource</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_1843</t>
+  </si>
+  <si>
+    <t>physical-object</t>
+  </si>
+  <si>
+    <t>Fyzický objekt</t>
+  </si>
+  <si>
+    <t>Physical object</t>
+  </si>
+  <si>
+    <t>PhysicalObject</t>
+  </si>
+  <si>
+    <t>patent</t>
+  </si>
+  <si>
+    <t>Patent</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_15cd</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>cartographic-material</t>
+  </si>
+  <si>
+    <t>Kartografický dokument</t>
+  </si>
+  <si>
+    <t>Cartographic material</t>
+  </si>
+  <si>
+    <t>mapy</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_12cc</t>
   </si>
 </sst>
 </file>
@@ -687,7 +828,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -755,13 +896,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -816,8 +1044,35 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1901,7 +2156,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2943,147 +3198,393 @@
     </row>
     <row r="43" ht="15.6" customHeight="1">
       <c r="A43" s="10"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="5"/>
+      <c r="B43" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s" s="15">
+        <v>39</v>
+      </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="G43" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s" s="14">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="J43" s="5"/>
     </row>
     <row r="44" ht="15.6" customHeight="1">
       <c r="A44" s="10"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="B44" t="s" s="3">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s" s="15">
+        <v>174</v>
+      </c>
+      <c r="D44" t="s" s="15">
+        <v>174</v>
+      </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="G44" t="s" s="3">
+        <v>173</v>
+      </c>
+      <c r="H44" t="s" s="3">
+        <v>175</v>
+      </c>
+      <c r="I44" t="s" s="3">
+        <v>174</v>
+      </c>
       <c r="J44" s="5"/>
     </row>
     <row r="45" ht="15.6" customHeight="1">
       <c r="A45" s="10"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" t="s" s="15">
+        <v>176</v>
+      </c>
+      <c r="C45" t="s" s="15">
+        <v>177</v>
+      </c>
+      <c r="D45" t="s" s="15">
+        <v>178</v>
+      </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="G45" t="s" s="3">
+        <v>179</v>
+      </c>
+      <c r="H45" t="s" s="3">
+        <v>180</v>
+      </c>
+      <c r="I45" t="s" s="3">
+        <v>103</v>
+      </c>
       <c r="J45" s="5"/>
     </row>
     <row r="46" ht="15.6" customHeight="1">
       <c r="A46" s="10"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="B46" t="s" s="15">
+        <v>181</v>
+      </c>
+      <c r="C46" t="s" s="15">
+        <v>182</v>
+      </c>
+      <c r="D46" t="s" s="15">
+        <v>183</v>
+      </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="G46" t="s" s="3">
+        <v>181</v>
+      </c>
+      <c r="H46" t="s" s="3">
+        <v>184</v>
+      </c>
+      <c r="I46" t="s" s="3">
+        <v>183</v>
+      </c>
       <c r="J46" s="5"/>
     </row>
     <row r="47" ht="15.6" customHeight="1">
       <c r="A47" s="10"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
+      <c r="B47" t="s" s="15">
+        <v>185</v>
+      </c>
+      <c r="C47" t="s" s="15">
+        <v>186</v>
+      </c>
+      <c r="D47" t="s" s="15">
+        <v>186</v>
+      </c>
+      <c r="E47" t="s" s="15">
+        <v>187</v>
+      </c>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="G47" t="s" s="3">
+        <v>188</v>
+      </c>
+      <c r="H47" t="s" s="3">
+        <v>189</v>
+      </c>
+      <c r="I47" t="s" s="3">
+        <v>190</v>
+      </c>
       <c r="J47" s="5"/>
     </row>
     <row r="48" ht="15.6" customHeight="1">
       <c r="A48" s="10"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="B48" t="s" s="15">
+        <v>191</v>
+      </c>
+      <c r="C48" t="s" s="15">
+        <v>192</v>
+      </c>
+      <c r="D48" t="s" s="15">
+        <v>192</v>
+      </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="9"/>
+      <c r="G48" t="s" s="3">
+        <v>193</v>
+      </c>
+      <c r="H48" t="s" s="3">
+        <v>194</v>
+      </c>
+      <c r="I48" t="s" s="18">
+        <v>195</v>
+      </c>
       <c r="J48" s="5"/>
     </row>
     <row r="49" ht="15.6" customHeight="1">
       <c r="A49" s="10"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
+      <c r="B49" t="s" s="15">
+        <v>196</v>
+      </c>
+      <c r="C49" t="s" s="15">
+        <v>197</v>
+      </c>
+      <c r="D49" t="s" s="15">
+        <v>198</v>
+      </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="G49" t="s" s="15">
+        <v>199</v>
+      </c>
+      <c r="H49" t="s" s="3">
+        <v>200</v>
+      </c>
+      <c r="I49" t="s" s="3">
+        <v>201</v>
+      </c>
       <c r="J49" s="5"/>
     </row>
     <row r="50" ht="15.6" customHeight="1">
       <c r="A50" s="10"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="18"/>
+      <c r="B50" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="C50" t="s" s="3">
+        <v>203</v>
+      </c>
+      <c r="D50" t="s" s="15">
+        <v>203</v>
+      </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="G50" t="s" s="3">
+        <v>156</v>
+      </c>
+      <c r="H50" t="s" s="3">
+        <v>204</v>
+      </c>
+      <c r="I50" t="s" s="3">
+        <v>203</v>
+      </c>
       <c r="J50" s="5"/>
     </row>
     <row r="51" ht="15.6" customHeight="1">
       <c r="A51" s="10"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="18"/>
+      <c r="B51" t="s" s="15">
+        <v>205</v>
+      </c>
+      <c r="C51" t="s" s="3">
+        <v>206</v>
+      </c>
+      <c r="D51" t="s" s="15">
+        <v>207</v>
+      </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="G51" t="s" s="3">
+        <v>156</v>
+      </c>
+      <c r="H51" t="s" s="3">
+        <v>204</v>
+      </c>
+      <c r="I51" t="s" s="3">
+        <v>208</v>
+      </c>
       <c r="J51" s="5"/>
     </row>
     <row r="52" ht="15.6" customHeight="1">
       <c r="A52" s="10"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="18"/>
+      <c r="B52" t="s" s="15">
+        <v>209</v>
+      </c>
+      <c r="C52" t="s" s="3">
+        <v>210</v>
+      </c>
+      <c r="D52" t="s" s="15">
+        <v>210</v>
+      </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="G52" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="H52" t="s" s="3">
+        <v>211</v>
+      </c>
+      <c r="I52" t="s" s="3">
+        <v>35</v>
+      </c>
       <c r="J52" s="5"/>
     </row>
     <row r="53" ht="15.6" customHeight="1">
       <c r="A53" s="10"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="18"/>
+      <c r="B53" t="s" s="15">
+        <v>212</v>
+      </c>
+      <c r="C53" t="s" s="3">
+        <v>213</v>
+      </c>
+      <c r="D53" t="s" s="15">
+        <v>214</v>
+      </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="G53" t="s" s="3">
+        <v>156</v>
+      </c>
+      <c r="H53" t="s" s="3">
+        <v>204</v>
+      </c>
+      <c r="I53" t="s" s="3">
+        <v>214</v>
+      </c>
       <c r="J53" s="5"/>
     </row>
     <row r="54" ht="15.6" customHeight="1">
       <c r="A54" s="10"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="5"/>
+      <c r="B54" t="s" s="3">
+        <v>215</v>
+      </c>
+      <c r="C54" t="s" s="3">
+        <v>216</v>
+      </c>
+      <c r="D54" t="s" s="15">
+        <v>217</v>
+      </c>
+      <c r="E54" t="s" s="3">
+        <v>218</v>
+      </c>
       <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="G54" t="s" s="3">
+        <v>164</v>
+      </c>
+      <c r="H54" t="s" s="3">
+        <v>219</v>
+      </c>
+      <c r="I54" t="s" s="3">
+        <v>62</v>
+      </c>
       <c r="J54" s="5"/>
+    </row>
+    <row r="55" ht="15.6" customHeight="1">
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" ht="15.6" customHeight="1">
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="24"/>
+    </row>
+    <row r="57" ht="15.6" customHeight="1">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
+    </row>
+    <row r="58" ht="15.6" customHeight="1">
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="24"/>
+    </row>
+    <row r="59" ht="15.6" customHeight="1">
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="24"/>
+    </row>
+    <row r="60" ht="15.6" customHeight="1">
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="24"/>
+    </row>
+    <row r="61" ht="15.6" customHeight="1">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="24"/>
+    </row>
+    <row r="62" ht="15.6" customHeight="1">
+      <c r="A62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3107,6 +3608,7 @@
     <hyperlink ref="H40" r:id="rId18" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
     <hyperlink ref="H41" r:id="rId19" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
     <hyperlink ref="H42" r:id="rId20" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
+    <hyperlink ref="H43" r:id="rId21" location="" tooltip="" display="http://purl.org/coar/resource_type/c_ddb1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/nr_vocabularies/fixtures/resource-types.xlsx
+++ b/nr_vocabularies/fixtures/resource-types.xlsx
@@ -828,7 +828,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -893,6 +893,43 @@
       </top>
       <bottom style="hair">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,7 +1026,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1072,6 +1109,15 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -3198,186 +3244,184 @@
     </row>
     <row r="43" ht="15.6" customHeight="1">
       <c r="A43" s="10"/>
-      <c r="B43" t="s" s="15">
-        <v>36</v>
+      <c r="B43" t="s" s="3">
+        <v>173</v>
       </c>
       <c r="C43" t="s" s="15">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="D43" t="s" s="15">
-        <v>38</v>
-      </c>
-      <c r="E43" t="s" s="15">
-        <v>39</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s" s="14">
-        <v>41</v>
+        <v>173</v>
+      </c>
+      <c r="H43" t="s" s="3">
+        <v>175</v>
       </c>
       <c r="I43" t="s" s="3">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="J43" s="5"/>
     </row>
     <row r="44" ht="15.6" customHeight="1">
       <c r="A44" s="10"/>
-      <c r="B44" t="s" s="3">
-        <v>173</v>
+      <c r="B44" t="s" s="15">
+        <v>176</v>
       </c>
       <c r="C44" t="s" s="15">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D44" t="s" s="15">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" t="s" s="3">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H44" t="s" s="3">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I44" t="s" s="3">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="J44" s="5"/>
     </row>
     <row r="45" ht="15.6" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" t="s" s="15">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s" s="15">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D45" t="s" s="15">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" t="s" s="3">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H45" t="s" s="3">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I45" t="s" s="3">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="J45" s="5"/>
     </row>
     <row r="46" ht="15.6" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" t="s" s="15">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C46" t="s" s="15">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D46" t="s" s="15">
-        <v>183</v>
-      </c>
-      <c r="E46" s="5"/>
+        <v>186</v>
+      </c>
+      <c r="E46" t="s" s="15">
+        <v>187</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" t="s" s="3">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="H46" t="s" s="3">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I46" t="s" s="3">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="J46" s="5"/>
     </row>
     <row r="47" ht="15.6" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" t="s" s="15">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C47" t="s" s="15">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D47" t="s" s="15">
-        <v>186</v>
-      </c>
-      <c r="E47" t="s" s="15">
-        <v>187</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" t="s" s="3">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H47" t="s" s="3">
-        <v>189</v>
-      </c>
-      <c r="I47" t="s" s="3">
-        <v>190</v>
+        <v>194</v>
+      </c>
+      <c r="I47" t="s" s="18">
+        <v>195</v>
       </c>
       <c r="J47" s="5"/>
     </row>
     <row r="48" ht="15.6" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" t="s" s="15">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s" s="15">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D48" t="s" s="15">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" t="s" s="3">
-        <v>193</v>
+      <c r="G48" t="s" s="15">
+        <v>199</v>
       </c>
       <c r="H48" t="s" s="3">
-        <v>194</v>
-      </c>
-      <c r="I48" t="s" s="18">
-        <v>195</v>
+        <v>200</v>
+      </c>
+      <c r="I48" t="s" s="3">
+        <v>201</v>
       </c>
       <c r="J48" s="5"/>
     </row>
     <row r="49" ht="15.6" customHeight="1">
       <c r="A49" s="10"/>
       <c r="B49" t="s" s="15">
-        <v>196</v>
-      </c>
-      <c r="C49" t="s" s="15">
-        <v>197</v>
+        <v>202</v>
+      </c>
+      <c r="C49" t="s" s="3">
+        <v>203</v>
       </c>
       <c r="D49" t="s" s="15">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" t="s" s="15">
-        <v>199</v>
+      <c r="G49" t="s" s="3">
+        <v>156</v>
       </c>
       <c r="H49" t="s" s="3">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I49" t="s" s="3">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J49" s="5"/>
     </row>
     <row r="50" ht="15.6" customHeight="1">
       <c r="A50" s="10"/>
       <c r="B50" t="s" s="15">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s" s="15">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -3388,203 +3432,191 @@
         <v>204</v>
       </c>
       <c r="I50" t="s" s="3">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="J50" s="5"/>
     </row>
     <row r="51" ht="15.6" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" t="s" s="15">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C51" t="s" s="3">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D51" t="s" s="15">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" t="s" s="3">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="H51" t="s" s="3">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="I51" t="s" s="3">
-        <v>208</v>
+        <v>35</v>
       </c>
       <c r="J51" s="5"/>
     </row>
     <row r="52" ht="15.6" customHeight="1">
       <c r="A52" s="10"/>
       <c r="B52" t="s" s="15">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s" s="3">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D52" t="s" s="15">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" t="s" s="3">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="H52" t="s" s="3">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I52" t="s" s="3">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="J52" s="5"/>
     </row>
     <row r="53" ht="15.6" customHeight="1">
       <c r="A53" s="10"/>
-      <c r="B53" t="s" s="15">
-        <v>212</v>
+      <c r="B53" t="s" s="3">
+        <v>215</v>
       </c>
       <c r="C53" t="s" s="3">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D53" t="s" s="15">
-        <v>214</v>
-      </c>
-      <c r="E53" s="5"/>
+        <v>217</v>
+      </c>
+      <c r="E53" t="s" s="3">
+        <v>218</v>
+      </c>
       <c r="F53" s="5"/>
       <c r="G53" t="s" s="3">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H53" t="s" s="3">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="I53" t="s" s="3">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="J53" s="5"/>
     </row>
     <row r="54" ht="15.6" customHeight="1">
-      <c r="A54" s="10"/>
-      <c r="B54" t="s" s="3">
-        <v>215</v>
-      </c>
-      <c r="C54" t="s" s="3">
-        <v>216</v>
-      </c>
-      <c r="D54" t="s" s="15">
-        <v>217</v>
-      </c>
-      <c r="E54" t="s" s="3">
-        <v>218</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="G54" t="s" s="3">
-        <v>164</v>
-      </c>
-      <c r="H54" t="s" s="3">
-        <v>219</v>
-      </c>
-      <c r="I54" t="s" s="3">
-        <v>62</v>
-      </c>
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="21"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" ht="15.6" customHeight="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="21"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="24"/>
     </row>
     <row r="56" ht="15.6" customHeight="1">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="24"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="27"/>
     </row>
     <row r="57" ht="15.6" customHeight="1">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="27"/>
     </row>
     <row r="58" ht="15.6" customHeight="1">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="24"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="27"/>
     </row>
     <row r="59" ht="15.6" customHeight="1">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="24"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="27"/>
     </row>
     <row r="60" ht="15.6" customHeight="1">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="24"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
     </row>
     <row r="61" ht="15.6" customHeight="1">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="24"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="27"/>
     </row>
     <row r="62" ht="15.6" customHeight="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="27"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3608,7 +3640,6 @@
     <hyperlink ref="H40" r:id="rId18" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
     <hyperlink ref="H41" r:id="rId19" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
     <hyperlink ref="H42" r:id="rId20" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
-    <hyperlink ref="H43" r:id="rId21" location="" tooltip="" display="http://purl.org/coar/resource_type/c_ddb1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/nr_vocabularies/fixtures/resource-types.xlsx
+++ b/nr_vocabularies/fixtures/resource-types.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>code</t>
   </si>
@@ -234,6 +234,110 @@
     <t>Other</t>
   </si>
   <si>
+    <t>data-paper</t>
+  </si>
+  <si>
+    <t>Data paper</t>
+  </si>
+  <si>
+    <t>článek o datové sadě</t>
+  </si>
+  <si>
+    <t>data paper</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_beb9</t>
+  </si>
+  <si>
+    <t>DataPaper</t>
+  </si>
+  <si>
+    <t>data-management-plan</t>
+  </si>
+  <si>
+    <t>Data management plan</t>
+  </si>
+  <si>
+    <t>data management plan</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_ab20</t>
+  </si>
+  <si>
+    <t>OutputManagementPlan</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_5ce6</t>
+  </si>
+  <si>
+    <t>software-paper</t>
+  </si>
+  <si>
+    <t>Software paper</t>
+  </si>
+  <si>
+    <t>software paper</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="13"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/coar/resource_type/c_7bab</t>
+    </r>
+  </si>
+  <si>
+    <t>interactive-resource</t>
+  </si>
+  <si>
+    <t>Interaktivní zdroj</t>
+  </si>
+  <si>
+    <t>Interactive resource</t>
+  </si>
+  <si>
+    <t>interactive resource</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_e9a0</t>
+  </si>
+  <si>
+    <t>InteractiveResource</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_1843</t>
+  </si>
+  <si>
+    <t>physical-object</t>
+  </si>
+  <si>
+    <t>Fyzický objekt</t>
+  </si>
+  <si>
+    <t>Physical object</t>
+  </si>
+  <si>
+    <t>PhysicalObject</t>
+  </si>
+  <si>
     <t>theses</t>
   </si>
   <si>
@@ -561,9 +665,6 @@
     <t>commercial print or catalogue</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -628,28 +729,37 @@
     <t>Ostatní</t>
   </si>
   <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>http://purl.org/coar/resource_type/c_5ce6</t>
-  </si>
-  <si>
-    <t>source-code</t>
-  </si>
-  <si>
-    <t>Zdrojový kód</t>
-  </si>
-  <si>
-    <t>Source code</t>
-  </si>
-  <si>
-    <t>source code</t>
-  </si>
-  <si>
-    <t>http://purl.org/coar/resource_type/QH80-2R4E</t>
+    <t>cartographic-material</t>
+  </si>
+  <si>
+    <t>Kartografický dokument</t>
+  </si>
+  <si>
+    <t>Cartographic material</t>
+  </si>
+  <si>
+    <t>mapy</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_12cc</t>
+  </si>
+  <si>
+    <t>patent</t>
+  </si>
+  <si>
+    <t>Patent</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_15cd</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>Standard</t>
   </si>
   <si>
     <t>journal</t>
@@ -662,111 +772,6 @@
   </si>
   <si>
     <t>http://purl.org/coar/resource_type/c_0640</t>
-  </si>
-  <si>
-    <t>data-paper</t>
-  </si>
-  <si>
-    <t>Data paper</t>
-  </si>
-  <si>
-    <t>článek o datové sadě</t>
-  </si>
-  <si>
-    <t>data paper</t>
-  </si>
-  <si>
-    <t>http://purl.org/coar/resource_type/c_beb9</t>
-  </si>
-  <si>
-    <t>DataPaper</t>
-  </si>
-  <si>
-    <t>data-management-plan</t>
-  </si>
-  <si>
-    <t>Data management plan</t>
-  </si>
-  <si>
-    <t>data management plan</t>
-  </si>
-  <si>
-    <t>http://purl.org/coar/resource_type/c_ab20</t>
-  </si>
-  <si>
-    <t>OutputManagementPlan</t>
-  </si>
-  <si>
-    <t>interactive-resource</t>
-  </si>
-  <si>
-    <t>Interaktivní zdroj</t>
-  </si>
-  <si>
-    <t>Interactive resource</t>
-  </si>
-  <si>
-    <t>interactive resource</t>
-  </si>
-  <si>
-    <t>http://purl.org/coar/resource_type/c_e9a0</t>
-  </si>
-  <si>
-    <t>InteractiveResource</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>http://purl.org/coar/resource_type/c_1843</t>
-  </si>
-  <si>
-    <t>physical-object</t>
-  </si>
-  <si>
-    <t>Fyzický objekt</t>
-  </si>
-  <si>
-    <t>Physical object</t>
-  </si>
-  <si>
-    <t>PhysicalObject</t>
-  </si>
-  <si>
-    <t>patent</t>
-  </si>
-  <si>
-    <t>Patent</t>
-  </si>
-  <si>
-    <t>http://purl.org/coar/resource_type/c_15cd</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>Norma</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>cartographic-material</t>
-  </si>
-  <si>
-    <t>Kartografický dokument</t>
-  </si>
-  <si>
-    <t>Cartographic material</t>
-  </si>
-  <si>
-    <t>mapy</t>
-  </si>
-  <si>
-    <t>http://purl.org/coar/resource_type/c_12cc</t>
   </si>
 </sst>
 </file>
@@ -776,7 +781,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -812,6 +817,12 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="13"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1141,6 +1152,7 @@
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff0563c1"/>
       <rgbColor rgb="ff555555"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2202,7 +2214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2384,7 +2396,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="15.6" customHeight="1">
+    <row r="9" ht="15.35" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" t="s" s="15">
         <v>31</v>
@@ -2561,32 +2573,34 @@
       <c r="B16" t="s" s="15">
         <v>63</v>
       </c>
-      <c r="C16" t="s" s="3">
+      <c r="C16" t="s" s="15">
         <v>64</v>
       </c>
       <c r="D16" t="s" s="15">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s" s="15">
         <v>65</v>
       </c>
-      <c r="E16" t="s" s="3">
+      <c r="F16" s="5"/>
+      <c r="G16" t="s" s="3">
         <v>66</v>
       </c>
-      <c r="F16" t="s" s="3">
+      <c r="H16" t="s" s="3">
         <v>67</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="I16" t="s" s="3">
+        <v>68</v>
+      </c>
       <c r="J16" s="5"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" t="s" s="15">
-        <v>63</v>
-      </c>
+      <c r="A17" s="10"/>
       <c r="B17" t="s" s="15">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s" s="15">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s" s="15">
         <v>70</v>
@@ -2596,166 +2610,154 @@
       <c r="G17" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="H17" t="s" s="14">
+      <c r="H17" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="I17" t="s" s="3">
+      <c r="I17" t="s" s="18">
         <v>73</v>
       </c>
       <c r="J17" s="5"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" t="s" s="15">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s" s="15">
+      <c r="A18" s="10"/>
+      <c r="B18" t="s" s="3">
         <v>74</v>
       </c>
       <c r="C18" t="s" s="15">
         <v>75</v>
       </c>
       <c r="D18" t="s" s="15">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" ht="15.6" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" t="s" s="15">
         <v>77</v>
       </c>
-      <c r="H18" t="s" s="14">
+      <c r="C19" t="s" s="3">
         <v>78</v>
       </c>
-      <c r="I18" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" t="s" s="15">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s" s="15">
+      <c r="D19" t="s" s="15">
+        <v>78</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" t="s" s="3">
         <v>79</v>
       </c>
-      <c r="C19" t="s" s="15">
+      <c r="H19" t="s" s="3">
         <v>80</v>
       </c>
-      <c r="D19" t="s" s="15">
+      <c r="I19" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" ht="15.6" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" t="s" s="15">
         <v>81</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" t="s" s="3">
+      <c r="C20" t="s" s="15">
         <v>82</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="D20" t="s" s="15">
         <v>83</v>
       </c>
-      <c r="H19" t="s" s="14">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" t="s" s="15">
         <v>84</v>
       </c>
-      <c r="I19" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" t="s" s="15">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s" s="15">
+      <c r="H20" t="s" s="3">
         <v>85</v>
       </c>
-      <c r="C20" t="s" s="15">
+      <c r="I20" t="s" s="3">
         <v>86</v>
       </c>
-      <c r="D20" t="s" s="15">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" ht="15.6" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" t="s" s="15">
         <v>87</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" t="s" s="3">
+      <c r="C21" t="s" s="3">
         <v>88</v>
       </c>
-      <c r="G20" t="s" s="3">
+      <c r="D21" t="s" s="15">
+        <v>88</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" t="s" s="3">
         <v>89</v>
       </c>
-      <c r="H20" t="s" s="14">
+      <c r="H21" t="s" s="3">
         <v>90</v>
       </c>
-      <c r="I20" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" t="s" s="15">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s" s="15">
-        <v>91</v>
-      </c>
-      <c r="C21" t="s" s="15">
-        <v>92</v>
-      </c>
-      <c r="D21" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" t="s" s="3">
-        <v>94</v>
-      </c>
-      <c r="G21" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="H21" t="s" s="14">
-        <v>84</v>
-      </c>
       <c r="I21" t="s" s="3">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="J21" s="5"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" t="s" s="15">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s" s="15">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="C22" t="s" s="3">
+        <v>92</v>
       </c>
       <c r="D22" t="s" s="15">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="G22" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="I22" t="s" s="3">
+        <v>94</v>
+      </c>
       <c r="J22" s="5"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" t="s" s="15">
+      <c r="A23" s="10"/>
+      <c r="B23" t="s" s="15">
         <v>95</v>
       </c>
-      <c r="B23" t="s" s="15">
+      <c r="C23" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s" s="15">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s" s="3">
         <v>98</v>
       </c>
-      <c r="C23" t="s" s="15">
+      <c r="F23" t="s" s="3">
         <v>99</v>
       </c>
-      <c r="D23" t="s" s="15">
-        <v>100</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" t="s" s="3">
-        <v>101</v>
-      </c>
-      <c r="H23" t="s" s="14">
-        <v>102</v>
-      </c>
-      <c r="I23" t="s" s="3">
-        <v>103</v>
-      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
@@ -2763,24 +2765,24 @@
         <v>95</v>
       </c>
       <c r="B24" t="s" s="15">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s" s="15">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s" s="15">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" t="s" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H24" t="s" s="14">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I24" t="s" s="3">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J24" s="5"/>
     </row>
@@ -2789,26 +2791,24 @@
         <v>95</v>
       </c>
       <c r="B25" t="s" s="15">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s" s="15">
         <v>107</v>
       </c>
-      <c r="C25" t="s" s="15">
+      <c r="D25" t="s" s="15">
         <v>108</v>
       </c>
-      <c r="D25" t="s" s="15">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" t="s" s="3">
         <v>109</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" t="s" s="3">
+      <c r="H25" t="s" s="14">
         <v>110</v>
       </c>
-      <c r="G25" t="s" s="3">
-        <v>101</v>
-      </c>
-      <c r="H25" t="s" s="14">
-        <v>102</v>
-      </c>
       <c r="I25" t="s" s="3">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J25" s="5"/>
     </row>
@@ -2826,618 +2826,636 @@
         <v>113</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="F26" t="s" s="3">
+        <v>114</v>
+      </c>
       <c r="G26" t="s" s="3">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H26" t="s" s="14">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="I26" t="s" s="3">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J26" s="5"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="10"/>
+      <c r="A27" t="s" s="15">
+        <v>95</v>
+      </c>
       <c r="B27" t="s" s="15">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s" s="15">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s" s="15">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="F27" t="s" s="3">
+        <v>120</v>
+      </c>
+      <c r="G27" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="H27" t="s" s="14">
+        <v>122</v>
+      </c>
+      <c r="I27" t="s" s="3">
+        <v>105</v>
+      </c>
       <c r="J27" s="5"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" t="s" s="15">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s" s="15">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s" s="15">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s" s="15">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="F28" t="s" s="3">
+        <v>126</v>
+      </c>
       <c r="G28" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="H28" t="s" s="3">
-        <v>121</v>
+        <v>115</v>
+      </c>
+      <c r="H28" t="s" s="14">
+        <v>116</v>
       </c>
       <c r="I28" t="s" s="3">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J28" s="5"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" t="s" s="15">
-        <v>114</v>
-      </c>
+      <c r="A29" s="10"/>
       <c r="B29" t="s" s="15">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s" s="15">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s" s="15">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" t="s" s="3">
-        <v>126</v>
-      </c>
-      <c r="H29" t="s" s="14">
-        <v>127</v>
-      </c>
-      <c r="I29" t="s" s="3">
-        <v>122</v>
-      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" t="s" s="15">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s" s="15">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s" s="15">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s" s="15">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" t="s" s="3">
-        <v>131</v>
-      </c>
-      <c r="H30" t="s" s="3">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="H30" t="s" s="14">
+        <v>134</v>
       </c>
       <c r="I30" t="s" s="3">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="J30" s="5"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" t="s" s="15">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s" s="15">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s" s="15">
+        <v>137</v>
+      </c>
+      <c r="D31" t="s" s="15">
+        <v>138</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" t="s" s="3">
         <v>133</v>
       </c>
-      <c r="C31" t="s" s="15">
+      <c r="H31" t="s" s="14">
         <v>134</v>
       </c>
-      <c r="D31" t="s" s="15">
+      <c r="I31" t="s" s="3">
         <v>135</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" t="s" s="3">
-        <v>136</v>
-      </c>
-      <c r="G31" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="H31" t="s" s="3">
-        <v>121</v>
-      </c>
-      <c r="I31" t="s" s="3">
-        <v>122</v>
-      </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" ht="16.2" customHeight="1">
+    <row r="32" ht="15.6" customHeight="1">
       <c r="A32" t="s" s="15">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s" s="15">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s" s="15">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s" s="15">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="F32" t="s" s="3">
+        <v>142</v>
+      </c>
       <c r="G32" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="H32" t="s" s="3">
-        <v>121</v>
+        <v>133</v>
+      </c>
+      <c r="H32" t="s" s="14">
+        <v>134</v>
       </c>
       <c r="I32" t="s" s="3">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="J32" s="5"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" t="s" s="15">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s" s="15">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s" s="15">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s" s="15">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="H33" t="s" s="3">
-        <v>121</v>
+        <v>133</v>
+      </c>
+      <c r="H33" t="s" s="14">
+        <v>134</v>
       </c>
       <c r="I33" t="s" s="3">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="J33" s="5"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" t="s" s="15">
-        <v>114</v>
-      </c>
+      <c r="A34" s="10"/>
       <c r="B34" t="s" s="15">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s" s="15">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s" s="15">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="H34" t="s" s="3">
-        <v>121</v>
-      </c>
-      <c r="I34" t="s" s="3">
-        <v>122</v>
-      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" t="s" s="15">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s" s="15">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s" s="15">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s" s="15">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" t="s" s="3">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="H35" t="s" s="3">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="I35" t="s" s="3">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="J35" s="5"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="10"/>
+      <c r="A36" t="s" s="15">
+        <v>146</v>
+      </c>
       <c r="B36" t="s" s="15">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s" s="15">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s" s="15">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="G36" t="s" s="3">
+        <v>158</v>
+      </c>
+      <c r="H36" t="s" s="14">
+        <v>159</v>
+      </c>
+      <c r="I36" t="s" s="3">
+        <v>154</v>
+      </c>
       <c r="J36" s="5"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" t="s" s="15">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s" s="15">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s" s="15">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s" s="15">
+        <v>162</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="H37" t="s" s="3">
+        <v>164</v>
+      </c>
+      <c r="I37" t="s" s="3">
         <v>154</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" t="s" s="3">
-        <v>155</v>
-      </c>
-      <c r="G37" t="s" s="3">
-        <v>156</v>
-      </c>
-      <c r="H37" t="s" s="14">
-        <v>157</v>
-      </c>
-      <c r="I37" t="s" s="3">
-        <v>35</v>
       </c>
       <c r="J37" s="5"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" t="s" s="15">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s" s="15">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s" s="15">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s" s="15">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="F38" t="s" s="3">
+        <v>168</v>
+      </c>
       <c r="G38" t="s" s="3">
-        <v>156</v>
-      </c>
-      <c r="H38" t="s" s="14">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="H38" t="s" s="3">
+        <v>153</v>
       </c>
       <c r="I38" t="s" s="3">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="J38" s="5"/>
     </row>
     <row r="39" ht="15.6" customHeight="1">
       <c r="A39" t="s" s="15">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s" s="15">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s" s="15">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D39" t="s" s="15">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" t="s" s="3">
-        <v>164</v>
-      </c>
-      <c r="H39" t="s" s="14">
-        <v>165</v>
+        <v>152</v>
+      </c>
+      <c r="H39" t="s" s="3">
+        <v>153</v>
       </c>
       <c r="I39" t="s" s="3">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" ht="15.6" customHeight="1">
+    <row r="40" ht="16.2" customHeight="1">
       <c r="A40" t="s" s="15">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s" s="15">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s" s="15">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D40" t="s" s="15">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" t="s" s="3">
-        <v>156</v>
-      </c>
-      <c r="H40" t="s" s="14">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="H40" t="s" s="3">
+        <v>153</v>
       </c>
       <c r="I40" t="s" s="3">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="J40" s="5"/>
     </row>
     <row r="41" ht="15.6" customHeight="1">
       <c r="A41" t="s" s="15">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s" s="15">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s" s="15">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D41" t="s" s="15">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" t="s" s="3">
-        <v>156</v>
-      </c>
-      <c r="H41" t="s" s="14">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="H41" t="s" s="3">
+        <v>153</v>
       </c>
       <c r="I41" t="s" s="3">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="J41" s="5"/>
     </row>
     <row r="42" ht="15.6" customHeight="1">
       <c r="A42" t="s" s="15">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s" s="15">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s" s="15">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D42" t="s" s="15">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" t="s" s="3">
-        <v>156</v>
-      </c>
-      <c r="H42" t="s" s="14">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="H42" t="s" s="3">
+        <v>153</v>
       </c>
       <c r="I42" t="s" s="3">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="J42" s="5"/>
     </row>
     <row r="43" ht="15.6" customHeight="1">
       <c r="A43" s="10"/>
-      <c r="B43" t="s" s="3">
-        <v>173</v>
+      <c r="B43" t="s" s="15">
+        <v>181</v>
       </c>
       <c r="C43" t="s" s="15">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D43" t="s" s="15">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" t="s" s="3">
-        <v>173</v>
-      </c>
-      <c r="H43" t="s" s="3">
-        <v>175</v>
-      </c>
-      <c r="I43" t="s" s="3">
-        <v>174</v>
-      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" ht="15.6" customHeight="1">
-      <c r="A44" s="10"/>
+      <c r="A44" t="s" s="15">
+        <v>181</v>
+      </c>
       <c r="B44" t="s" s="15">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C44" t="s" s="15">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D44" t="s" s="15">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="F44" t="s" s="3">
+        <v>187</v>
+      </c>
       <c r="G44" t="s" s="3">
-        <v>179</v>
-      </c>
-      <c r="H44" t="s" s="3">
-        <v>180</v>
+        <v>89</v>
+      </c>
+      <c r="H44" t="s" s="14">
+        <v>188</v>
       </c>
       <c r="I44" t="s" s="3">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="J44" s="5"/>
     </row>
     <row r="45" ht="15.6" customHeight="1">
-      <c r="A45" s="10"/>
+      <c r="A45" t="s" s="15">
+        <v>181</v>
+      </c>
       <c r="B45" t="s" s="15">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C45" t="s" s="15">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D45" t="s" s="15">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="H45" t="s" s="14">
+        <v>188</v>
+      </c>
+      <c r="I45" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" ht="15.6" customHeight="1">
+      <c r="A46" t="s" s="15">
         <v>181</v>
       </c>
-      <c r="H45" t="s" s="3">
-        <v>184</v>
-      </c>
-      <c r="I45" t="s" s="3">
-        <v>183</v>
-      </c>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" ht="15.6" customHeight="1">
-      <c r="A46" s="10"/>
       <c r="B46" t="s" s="15">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C46" t="s" s="15">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D46" t="s" s="15">
-        <v>186</v>
-      </c>
-      <c r="E46" t="s" s="15">
-        <v>187</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" t="s" s="3">
-        <v>188</v>
-      </c>
-      <c r="H46" t="s" s="3">
-        <v>189</v>
+        <v>195</v>
+      </c>
+      <c r="H46" t="s" s="14">
+        <v>196</v>
       </c>
       <c r="I46" t="s" s="3">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="J46" s="5"/>
     </row>
     <row r="47" ht="15.6" customHeight="1">
-      <c r="A47" s="10"/>
+      <c r="A47" t="s" s="15">
+        <v>181</v>
+      </c>
       <c r="B47" t="s" s="15">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s" s="15">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D47" t="s" s="15">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" t="s" s="3">
-        <v>193</v>
-      </c>
-      <c r="H47" t="s" s="3">
-        <v>194</v>
-      </c>
-      <c r="I47" t="s" s="18">
-        <v>195</v>
+        <v>89</v>
+      </c>
+      <c r="H47" t="s" s="14">
+        <v>188</v>
+      </c>
+      <c r="I47" t="s" s="3">
+        <v>35</v>
       </c>
       <c r="J47" s="5"/>
     </row>
     <row r="48" ht="15.6" customHeight="1">
-      <c r="A48" s="10"/>
+      <c r="A48" t="s" s="15">
+        <v>181</v>
+      </c>
       <c r="B48" t="s" s="15">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C48" t="s" s="15">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s" s="15">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" t="s" s="15">
-        <v>199</v>
-      </c>
-      <c r="H48" t="s" s="3">
-        <v>200</v>
+      <c r="G48" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="H48" t="s" s="14">
+        <v>188</v>
       </c>
       <c r="I48" t="s" s="3">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="J48" s="5"/>
     </row>
     <row r="49" ht="15.6" customHeight="1">
-      <c r="A49" s="10"/>
+      <c r="A49" t="s" s="15">
+        <v>181</v>
+      </c>
       <c r="B49" t="s" s="15">
-        <v>202</v>
-      </c>
-      <c r="C49" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s" s="15">
         <v>203</v>
       </c>
       <c r="D49" t="s" s="15">
-        <v>203</v>
+        <v>62</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" t="s" s="3">
-        <v>156</v>
-      </c>
-      <c r="H49" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="H49" t="s" s="14">
+        <v>188</v>
+      </c>
+      <c r="I49" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" ht="15.6" customHeight="1">
+      <c r="A50" t="s" s="15">
+        <v>181</v>
+      </c>
+      <c r="B50" t="s" s="3">
         <v>204</v>
       </c>
-      <c r="I49" t="s" s="3">
-        <v>203</v>
-      </c>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" ht="15.6" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" t="s" s="15">
+      <c r="C50" t="s" s="3">
         <v>205</v>
       </c>
-      <c r="C50" t="s" s="3">
+      <c r="D50" t="s" s="15">
         <v>206</v>
       </c>
-      <c r="D50" t="s" s="15">
+      <c r="E50" t="s" s="3">
         <v>207</v>
       </c>
-      <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" t="s" s="3">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="H50" t="s" s="3">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I50" t="s" s="3">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="J50" s="5"/>
     </row>
     <row r="51" ht="15.6" customHeight="1">
-      <c r="A51" s="10"/>
+      <c r="A51" t="s" s="15">
+        <v>181</v>
+      </c>
       <c r="B51" t="s" s="15">
         <v>209</v>
       </c>
@@ -3461,7 +3479,9 @@
       <c r="J51" s="5"/>
     </row>
     <row r="52" ht="15.6" customHeight="1">
-      <c r="A52" s="10"/>
+      <c r="A52" t="s" s="15">
+        <v>181</v>
+      </c>
       <c r="B52" t="s" s="15">
         <v>212</v>
       </c>
@@ -3474,10 +3494,10 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" t="s" s="3">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="3">
-        <v>204</v>
+        <v>90</v>
       </c>
       <c r="I52" t="s" s="3">
         <v>214</v>
@@ -3486,27 +3506,25 @@
     </row>
     <row r="53" ht="15.6" customHeight="1">
       <c r="A53" s="10"/>
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="15">
         <v>215</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="15">
         <v>216</v>
       </c>
       <c r="D53" t="s" s="15">
         <v>217</v>
       </c>
-      <c r="E53" t="s" s="3">
-        <v>218</v>
-      </c>
+      <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" t="s" s="3">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="H53" t="s" s="3">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I53" t="s" s="3">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="J53" s="5"/>
     </row>
@@ -3519,44 +3537,44 @@
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="5"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" ht="15.6" customHeight="1">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="24"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="5"/>
     </row>
     <row r="56" ht="15.6" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="27"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="5"/>
     </row>
     <row r="57" ht="15.6" customHeight="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="27"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
     </row>
     <row r="58" ht="15.6" customHeight="1">
       <c r="A58" s="25"/>
@@ -3607,16 +3625,40 @@
       <c r="J61" s="27"/>
     </row>
     <row r="62" ht="15.6" customHeight="1">
-      <c r="A62" s="28"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="30"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="27"/>
+    </row>
+    <row r="63" ht="15.6" customHeight="1">
+      <c r="A63" s="25"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="27"/>
+    </row>
+    <row r="64" ht="15.6" customHeight="1">
+      <c r="A64" s="28"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3624,22 +3666,23 @@
     <hyperlink ref="H7" r:id="rId2" location="" tooltip="" display="http://purl.org/coar/resource_type/c_3248"/>
     <hyperlink ref="H8" r:id="rId3" location="" tooltip="" display="http://purl.org/coar/resource_type/c_6501"/>
     <hyperlink ref="H10" r:id="rId4" location="" tooltip="" display="http://purl.org/coar/resource_type/c_ddb1"/>
-    <hyperlink ref="H17" r:id="rId5" location="" tooltip="" display="http://purl.org/coar/resource_type/c_7a1f"/>
-    <hyperlink ref="H18" r:id="rId6" location="" tooltip="" display="http://purl.org/coar/resource_type/c_bdcc"/>
-    <hyperlink ref="H19" r:id="rId7" location="" tooltip="" display="http://purl.org/coar/resource_type/c_46ec"/>
-    <hyperlink ref="H20" r:id="rId8" location="" tooltip="" display="http://purl.org/coar/resource_type/c_db06"/>
-    <hyperlink ref="H21" r:id="rId9" location="" tooltip="" display="http://purl.org/coar/resource_type/c_46ec"/>
-    <hyperlink ref="H23" r:id="rId10" location="" tooltip="" display="http://purl.org/coar/resource_type/c_393c"/>
-    <hyperlink ref="H24" r:id="rId11" location="" tooltip="" display="http://purl.org/coar/resource_type/c_393c"/>
-    <hyperlink ref="H25" r:id="rId12" location="" tooltip="" display="http://purl.org/coar/resource_type/c_393c"/>
-    <hyperlink ref="H26" r:id="rId13" location="" tooltip="" display="http://purl.org/coar/resource_type/c_393c"/>
-    <hyperlink ref="H29" r:id="rId14" location="" tooltip="" display="http://purl.org/coar/resource_type/c_18ws"/>
-    <hyperlink ref="H37" r:id="rId15" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
-    <hyperlink ref="H38" r:id="rId16" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
-    <hyperlink ref="H39" r:id="rId17" location="" tooltip="" display="http://purl.org/coar/resource_type/c_12cc"/>
-    <hyperlink ref="H40" r:id="rId18" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
-    <hyperlink ref="H41" r:id="rId19" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
-    <hyperlink ref="H42" r:id="rId20" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
+    <hyperlink ref="H19" r:id="rId5" location="" tooltip="" display="http://purl.org/coar/resource_type/c_7bab"/>
+    <hyperlink ref="H24" r:id="rId6" location="" tooltip="" display="http://purl.org/coar/resource_type/c_7a1f"/>
+    <hyperlink ref="H25" r:id="rId7" location="" tooltip="" display="http://purl.org/coar/resource_type/c_bdcc"/>
+    <hyperlink ref="H26" r:id="rId8" location="" tooltip="" display="http://purl.org/coar/resource_type/c_46ec"/>
+    <hyperlink ref="H27" r:id="rId9" location="" tooltip="" display="http://purl.org/coar/resource_type/c_db06"/>
+    <hyperlink ref="H28" r:id="rId10" location="" tooltip="" display="http://purl.org/coar/resource_type/c_46ec"/>
+    <hyperlink ref="H30" r:id="rId11" location="" tooltip="" display="http://purl.org/coar/resource_type/c_393c"/>
+    <hyperlink ref="H31" r:id="rId12" location="" tooltip="" display="http://purl.org/coar/resource_type/c_393c"/>
+    <hyperlink ref="H32" r:id="rId13" location="" tooltip="" display="http://purl.org/coar/resource_type/c_393c"/>
+    <hyperlink ref="H33" r:id="rId14" location="" tooltip="" display="http://purl.org/coar/resource_type/c_393c"/>
+    <hyperlink ref="H36" r:id="rId15" location="" tooltip="" display="http://purl.org/coar/resource_type/c_18ws"/>
+    <hyperlink ref="H44" r:id="rId16" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
+    <hyperlink ref="H45" r:id="rId17" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
+    <hyperlink ref="H46" r:id="rId18" location="" tooltip="" display="http://purl.org/coar/resource_type/c_12cc"/>
+    <hyperlink ref="H47" r:id="rId19" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
+    <hyperlink ref="H48" r:id="rId20" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
+    <hyperlink ref="H49" r:id="rId21" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/nr_vocabularies/fixtures/resource-types.xlsx
+++ b/nr_vocabularies/fixtures/resource-types.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\NUŠL\SW\INVENIO 3\taxonomie\nr-vocabularies\nr_vocabularies\fixtures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72084CA5-FB69-42F0-A87E-53356A2F342D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="nr" sheetId="1" r:id="rId4"/>
+    <sheet name="nr" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="222">
   <si>
     <t>code</t>
   </si>
@@ -66,7 +75,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -92,7 +101,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -118,7 +127,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -162,7 +171,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -287,7 +296,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -367,7 +376,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -393,7 +402,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -419,7 +428,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -445,7 +454,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -489,7 +498,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -572,7 +581,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -667,7 +676,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -699,7 +708,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -773,27 +782,23 @@
   <si>
     <t>http://purl.org/coar/resource_type/c_0640</t>
   </si>
+  <si>
+    <t>props.submission</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -808,7 +813,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Calibri"/>
@@ -819,7 +824,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="13"/>
       <name val="Calibri"/>
@@ -1033,133 +1038,135 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ff555555"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FF555555"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Motiv Office">
       <a:dk1>
@@ -1361,7 +1368,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1380,7 +1387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1410,7 +1417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1436,7 +1443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1462,7 +1469,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1488,7 +1495,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1514,7 +1521,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1540,7 +1547,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1566,7 +1573,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1592,7 +1599,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1618,7 +1625,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1631,9 +1638,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1650,7 +1663,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1669,7 +1682,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1695,7 +1708,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1721,7 +1734,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1747,7 +1760,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1773,7 +1786,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1799,7 +1812,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1825,7 +1838,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1851,7 +1864,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1877,7 +1890,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1903,7 +1916,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1916,9 +1929,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1932,7 +1951,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1951,7 +1970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1981,7 +2000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2007,7 +2026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2033,7 +2052,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2059,7 +2078,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2085,7 +2104,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2111,7 +2130,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2137,7 +2156,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2163,7 +2182,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2189,7 +2208,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2202,42 +2221,51 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="4" width="25.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="25.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.1719" style="1" customWidth="1"/>
-    <col min="9" max="10" width="25.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="25.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.21875" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.44140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="25.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4"/>
@@ -2248,14 +2276,14 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="15.6" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4"/>
@@ -2266,7 +2294,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" ht="15.6" customHeight="1">
+    <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2278,7 +2306,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2290,171 +2318,183 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s" s="8">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s" s="8">
+      <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s" s="8">
+      <c r="H5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s" s="8">
+      <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" ht="15.6" customHeight="1">
+      <c r="J5" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" t="s" s="12">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="12">
+      <c r="D6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s" s="13">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" t="s" s="3">
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s" s="14">
+      <c r="H6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s" s="3">
+      <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" ht="15.6" customHeight="1">
+      <c r="J6" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" t="s" s="15">
+      <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s" s="15">
+      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s" s="15">
+      <c r="D7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s" s="7">
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" t="s" s="3">
+      <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s" s="14">
+      <c r="H7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I7" t="s" s="3">
+      <c r="I7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" ht="15.6" customHeight="1">
+      <c r="J7" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" t="s" s="15">
+      <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s" s="15">
+      <c r="C8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s" s="15">
+      <c r="D8" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" t="s" s="3">
+      <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H8" t="s" s="14">
+      <c r="H8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I8" t="s" s="3">
+      <c r="I8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" ht="15.35" customHeight="1">
+      <c r="J8" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" t="s" s="15">
+      <c r="B9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s" s="15">
+      <c r="C9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s" s="15">
+      <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" t="s" s="3">
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s" s="16">
+      <c r="H9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I9" t="s" s="3">
+      <c r="I9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" ht="15.6" customHeight="1">
+      <c r="J9" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
-      <c r="B10" t="s" s="15">
+      <c r="B10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s" s="15">
+      <c r="C10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s" s="15">
+      <c r="D10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s" s="15">
+      <c r="E10" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" t="s" s="3">
+      <c r="G10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H10" t="s" s="14">
+      <c r="H10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I10" t="s" s="3">
+      <c r="I10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" ht="15.6" customHeight="1">
+      <c r="J10" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" t="s" s="15">
+      <c r="B11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s" s="15">
+      <c r="C11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s" s="15">
+      <c r="D11" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="5"/>
@@ -2464,295 +2504,317 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" t="s" s="15">
+    <row r="12" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s" s="15">
+      <c r="B12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s" s="15">
+      <c r="C12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s" s="15">
+      <c r="D12" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" t="s" s="3">
+      <c r="G12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I12" t="s" s="3">
+      <c r="I12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" t="s" s="15">
+      <c r="J12" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s" s="15">
+      <c r="B13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s" s="15">
+      <c r="C13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s" s="15">
+      <c r="D13" s="15" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" t="s" s="3">
+      <c r="G13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H13" t="s" s="3">
+      <c r="H13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I13" t="s" s="3">
+      <c r="I13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" t="s" s="15">
+      <c r="J13" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s" s="15">
+      <c r="B14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C14" t="s" s="15">
+      <c r="C14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s" s="15">
+      <c r="D14" s="15" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" t="s" s="3">
+      <c r="G14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H14" t="s" s="3">
+      <c r="H14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I14" t="s" s="3">
+      <c r="I14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" t="s" s="15">
+      <c r="J14" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s" s="15">
+      <c r="B15" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s" s="15">
+      <c r="C15" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" t="s" s="15">
+      <c r="D15" s="15" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" t="s" s="3">
+      <c r="G15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H15" t="s" s="3">
+      <c r="H15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I15" t="s" s="3">
+      <c r="I15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" ht="15.6" customHeight="1">
+      <c r="J15" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
-      <c r="B16" t="s" s="15">
+      <c r="B16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C16" t="s" s="15">
+      <c r="C16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D16" t="s" s="15">
+      <c r="D16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E16" t="s" s="15">
+      <c r="E16" s="15" t="s">
         <v>65</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" t="s" s="3">
+      <c r="G16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H16" t="s" s="3">
+      <c r="H16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I16" t="s" s="3">
+      <c r="I16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" ht="15.6" customHeight="1">
+      <c r="J16" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
-      <c r="B17" t="s" s="15">
+      <c r="B17" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s" s="15">
+      <c r="C17" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D17" t="s" s="15">
+      <c r="D17" s="15" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" t="s" s="3">
+      <c r="G17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I17" t="s" s="18">
+      <c r="I17" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" ht="15.6" customHeight="1">
+      <c r="J17" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" t="s" s="3">
+      <c r="B18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C18" t="s" s="15">
+      <c r="C18" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D18" t="s" s="15">
+      <c r="D18" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" t="s" s="3">
+      <c r="G18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H18" t="s" s="3">
+      <c r="H18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I18" t="s" s="3">
+      <c r="I18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" ht="15.6" customHeight="1">
+      <c r="J18" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" t="s" s="15">
+      <c r="B19" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D19" t="s" s="15">
+      <c r="D19" s="15" t="s">
         <v>78</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" t="s" s="3">
+      <c r="G19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I19" t="s" s="3">
+      <c r="I19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" ht="15.6" customHeight="1">
+      <c r="J19" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
-      <c r="B20" t="s" s="15">
+      <c r="B20" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C20" t="s" s="15">
+      <c r="C20" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D20" t="s" s="15">
+      <c r="D20" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" t="s" s="15">
+      <c r="G20" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H20" t="s" s="3">
+      <c r="H20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I20" t="s" s="3">
+      <c r="I20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" ht="15.6" customHeight="1">
+      <c r="J20" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" t="s" s="15">
+      <c r="B21" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="C21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D21" t="s" s="15">
+      <c r="D21" s="15" t="s">
         <v>88</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" t="s" s="3">
+      <c r="G21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H21" t="s" s="3">
+      <c r="H21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I21" t="s" s="3">
+      <c r="I21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" ht="15.6" customHeight="1">
+      <c r="J21" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" t="s" s="15">
+      <c r="B22" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="C22" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D22" t="s" s="15">
+      <c r="D22" s="15" t="s">
         <v>93</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" t="s" s="3">
+      <c r="G22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H22" t="s" s="3">
+      <c r="H22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I22" t="s" s="3">
+      <c r="I22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" ht="15.6" customHeight="1">
+      <c r="J22" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" t="s" s="15">
+      <c r="B23" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C23" t="s" s="3">
+      <c r="C23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D23" t="s" s="15">
+      <c r="D23" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E23" t="s" s="3">
+      <c r="E23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F23" t="s" s="3">
+      <c r="F23" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G23" s="5"/>
@@ -2760,151 +2822,161 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" t="s" s="15">
+    <row r="24" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B24" t="s" s="15">
+      <c r="B24" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C24" t="s" s="15">
+      <c r="C24" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D24" t="s" s="15">
+      <c r="D24" s="15" t="s">
         <v>102</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" t="s" s="3">
+      <c r="G24" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H24" t="s" s="14">
+      <c r="H24" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="I24" t="s" s="3">
+      <c r="I24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" t="s" s="15">
+      <c r="J24" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B25" t="s" s="15">
+      <c r="B25" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C25" t="s" s="15">
+      <c r="C25" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D25" t="s" s="15">
+      <c r="D25" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" t="s" s="3">
+      <c r="G25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H25" t="s" s="14">
+      <c r="H25" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="I25" t="s" s="3">
+      <c r="I25" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" t="s" s="15">
+      <c r="J25" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B26" t="s" s="15">
+      <c r="B26" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C26" t="s" s="15">
+      <c r="C26" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D26" t="s" s="15">
+      <c r="D26" s="15" t="s">
         <v>113</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" t="s" s="3">
+      <c r="F26" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H26" t="s" s="14">
+      <c r="H26" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I26" t="s" s="3">
+      <c r="I26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" t="s" s="15">
+      <c r="J26" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B27" t="s" s="15">
+      <c r="B27" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C27" t="s" s="15">
+      <c r="C27" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D27" t="s" s="15">
+      <c r="D27" s="15" t="s">
         <v>119</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" t="s" s="3">
+      <c r="F27" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G27" t="s" s="3">
+      <c r="G27" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H27" t="s" s="14">
+      <c r="H27" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I27" t="s" s="3">
+      <c r="I27" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" t="s" s="15">
+      <c r="J27" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B28" t="s" s="15">
+      <c r="B28" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C28" t="s" s="15">
+      <c r="C28" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D28" t="s" s="15">
+      <c r="D28" s="15" t="s">
         <v>125</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" t="s" s="3">
+      <c r="F28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G28" t="s" s="3">
+      <c r="G28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H28" t="s" s="14">
+      <c r="H28" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I28" t="s" s="3">
+      <c r="I28" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" ht="15.6" customHeight="1">
+      <c r="J28" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="B29" t="s" s="15">
+      <c r="B29" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C29" t="s" s="15">
+      <c r="C29" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D29" t="s" s="15">
+      <c r="D29" s="15" t="s">
         <v>129</v>
       </c>
       <c r="E29" s="5"/>
@@ -2914,121 +2986,129 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" t="s" s="15">
+    <row r="30" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B30" t="s" s="15">
+      <c r="B30" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C30" t="s" s="15">
+      <c r="C30" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D30" t="s" s="15">
+      <c r="D30" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" t="s" s="3">
+      <c r="G30" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H30" t="s" s="14">
+      <c r="H30" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I30" t="s" s="3">
+      <c r="I30" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" t="s" s="15">
+      <c r="J30" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B31" t="s" s="15">
+      <c r="B31" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C31" t="s" s="15">
+      <c r="C31" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D31" t="s" s="15">
+      <c r="D31" s="15" t="s">
         <v>138</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" t="s" s="3">
+      <c r="G31" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H31" t="s" s="14">
+      <c r="H31" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I31" t="s" s="3">
+      <c r="I31" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" t="s" s="15">
+      <c r="J31" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B32" t="s" s="15">
+      <c r="B32" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C32" t="s" s="15">
+      <c r="C32" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D32" t="s" s="15">
+      <c r="D32" s="15" t="s">
         <v>141</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" t="s" s="3">
+      <c r="F32" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G32" t="s" s="3">
+      <c r="G32" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H32" t="s" s="14">
+      <c r="H32" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I32" t="s" s="3">
+      <c r="I32" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" t="s" s="15">
+      <c r="J32" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B33" t="s" s="15">
+      <c r="B33" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C33" t="s" s="15">
+      <c r="C33" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D33" t="s" s="15">
+      <c r="D33" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" t="s" s="3">
+      <c r="G33" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H33" t="s" s="14">
+      <c r="H33" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I33" t="s" s="3">
+      <c r="I33" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" ht="15.6" customHeight="1">
+      <c r="J33" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
-      <c r="B34" t="s" s="15">
+      <c r="B34" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C34" t="s" s="15">
+      <c r="C34" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D34" t="s" s="15">
+      <c r="D34" s="15" t="s">
         <v>148</v>
       </c>
       <c r="E34" s="5"/>
@@ -3038,225 +3118,241 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" t="s" s="15">
+    <row r="35" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B35" t="s" s="15">
+      <c r="B35" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C35" t="s" s="15">
+      <c r="C35" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D35" t="s" s="15">
+      <c r="D35" s="15" t="s">
         <v>151</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" t="s" s="3">
+      <c r="G35" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H35" t="s" s="3">
+      <c r="H35" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I35" t="s" s="3">
+      <c r="I35" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" t="s" s="15">
+      <c r="J35" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B36" t="s" s="15">
+      <c r="B36" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C36" t="s" s="15">
+      <c r="C36" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D36" t="s" s="15">
+      <c r="D36" s="15" t="s">
         <v>157</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" t="s" s="3">
+      <c r="G36" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H36" t="s" s="14">
+      <c r="H36" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="I36" t="s" s="3">
+      <c r="I36" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" t="s" s="15">
+      <c r="J36" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B37" t="s" s="15">
+      <c r="B37" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C37" t="s" s="15">
+      <c r="C37" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D37" t="s" s="15">
+      <c r="D37" s="15" t="s">
         <v>162</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" t="s" s="3">
+      <c r="G37" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H37" t="s" s="3">
+      <c r="H37" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I37" t="s" s="3">
+      <c r="I37" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" ht="15.6" customHeight="1">
-      <c r="A38" t="s" s="15">
+      <c r="J37" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B38" t="s" s="15">
+      <c r="B38" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C38" t="s" s="15">
+      <c r="C38" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D38" t="s" s="15">
+      <c r="D38" s="15" t="s">
         <v>167</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" t="s" s="3">
+      <c r="F38" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I38" t="s" s="3">
+      <c r="I38" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" ht="15.6" customHeight="1">
-      <c r="A39" t="s" s="15">
+      <c r="J38" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B39" t="s" s="15">
+      <c r="B39" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C39" t="s" s="15">
+      <c r="C39" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D39" t="s" s="15">
+      <c r="D39" s="15" t="s">
         <v>171</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" t="s" s="3">
+      <c r="G39" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H39" t="s" s="3">
+      <c r="H39" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I39" t="s" s="3">
+      <c r="I39" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" ht="16.2" customHeight="1">
-      <c r="A40" t="s" s="15">
+      <c r="J39" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B40" t="s" s="15">
+      <c r="B40" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C40" t="s" s="15">
+      <c r="C40" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D40" t="s" s="15">
+      <c r="D40" s="15" t="s">
         <v>174</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" t="s" s="3">
+      <c r="G40" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I40" t="s" s="3">
+      <c r="I40" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" ht="15.6" customHeight="1">
-      <c r="A41" t="s" s="15">
+      <c r="J40" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B41" t="s" s="15">
+      <c r="B41" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C41" t="s" s="15">
+      <c r="C41" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D41" t="s" s="15">
+      <c r="D41" s="15" t="s">
         <v>177</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" t="s" s="3">
+      <c r="G41" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H41" t="s" s="3">
+      <c r="H41" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I41" t="s" s="3">
+      <c r="I41" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" ht="15.6" customHeight="1">
-      <c r="A42" t="s" s="15">
+      <c r="J41" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B42" t="s" s="15">
+      <c r="B42" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C42" t="s" s="15">
+      <c r="C42" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D42" t="s" s="15">
+      <c r="D42" s="15" t="s">
         <v>180</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" t="s" s="3">
+      <c r="G42" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H42" t="s" s="3">
+      <c r="H42" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I42" t="s" s="3">
+      <c r="I42" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" ht="15.6" customHeight="1">
+      <c r="J42" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" t="s" s="15">
+      <c r="B43" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C43" t="s" s="15">
+      <c r="C43" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D43" t="s" s="15">
+      <c r="D43" s="15" t="s">
         <v>183</v>
       </c>
       <c r="E43" s="5"/>
@@ -3266,269 +3362,289 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" ht="15.6" customHeight="1">
-      <c r="A44" t="s" s="15">
+    <row r="44" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B44" t="s" s="15">
+      <c r="B44" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C44" t="s" s="15">
+      <c r="C44" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D44" t="s" s="15">
+      <c r="D44" s="15" t="s">
         <v>186</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" t="s" s="3">
+      <c r="F44" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G44" t="s" s="3">
+      <c r="G44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H44" t="s" s="14">
+      <c r="H44" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="I44" t="s" s="3">
+      <c r="I44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" ht="15.6" customHeight="1">
-      <c r="A45" t="s" s="15">
+      <c r="J44" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B45" t="s" s="15">
+      <c r="B45" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C45" t="s" s="15">
+      <c r="C45" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D45" t="s" s="15">
+      <c r="D45" s="15" t="s">
         <v>191</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" t="s" s="3">
+      <c r="G45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H45" t="s" s="14">
+      <c r="H45" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="I45" t="s" s="3">
+      <c r="I45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" ht="15.6" customHeight="1">
-      <c r="A46" t="s" s="15">
+      <c r="J45" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B46" t="s" s="15">
+      <c r="B46" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C46" t="s" s="15">
+      <c r="C46" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D46" t="s" s="15">
+      <c r="D46" s="15" t="s">
         <v>194</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" t="s" s="3">
+      <c r="G46" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H46" t="s" s="14">
+      <c r="H46" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="I46" t="s" s="3">
+      <c r="I46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" ht="15.6" customHeight="1">
-      <c r="A47" t="s" s="15">
+      <c r="J46" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B47" t="s" s="15">
+      <c r="B47" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C47" t="s" s="15">
+      <c r="C47" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="D47" t="s" s="15">
+      <c r="D47" s="15" t="s">
         <v>199</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" t="s" s="3">
+      <c r="G47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H47" t="s" s="14">
+      <c r="H47" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="I47" t="s" s="3">
+      <c r="I47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" ht="15.6" customHeight="1">
-      <c r="A48" t="s" s="15">
+      <c r="J47" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B48" t="s" s="15">
+      <c r="B48" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C48" t="s" s="15">
+      <c r="C48" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D48" t="s" s="15">
+      <c r="D48" s="15" t="s">
         <v>202</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" t="s" s="3">
+      <c r="G48" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H48" t="s" s="14">
+      <c r="H48" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="I48" t="s" s="3">
+      <c r="I48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" ht="15.6" customHeight="1">
-      <c r="A49" t="s" s="15">
+      <c r="J48" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B49" t="s" s="15">
+      <c r="B49" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C49" t="s" s="15">
+      <c r="C49" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D49" t="s" s="15">
+      <c r="D49" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" t="s" s="3">
+      <c r="G49" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H49" t="s" s="14">
+      <c r="H49" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="I49" t="s" s="3">
+      <c r="I49" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" ht="15.6" customHeight="1">
-      <c r="A50" t="s" s="15">
+      <c r="J49" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B50" t="s" s="3">
+      <c r="B50" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C50" t="s" s="3">
+      <c r="C50" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D50" t="s" s="15">
+      <c r="D50" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" s="3" t="s">
         <v>207</v>
       </c>
       <c r="F50" s="5"/>
-      <c r="G50" t="s" s="3">
+      <c r="G50" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H50" t="s" s="3">
+      <c r="H50" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I50" t="s" s="3">
+      <c r="I50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" ht="15.6" customHeight="1">
-      <c r="A51" t="s" s="15">
+      <c r="J50" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B51" t="s" s="15">
+      <c r="B51" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C51" t="s" s="3">
+      <c r="C51" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D51" t="s" s="15">
+      <c r="D51" s="15" t="s">
         <v>210</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" t="s" s="3">
+      <c r="G51" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H51" t="s" s="3">
+      <c r="H51" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I51" t="s" s="3">
+      <c r="I51" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" ht="15.6" customHeight="1">
-      <c r="A52" t="s" s="15">
+      <c r="J51" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B52" t="s" s="15">
+      <c r="B52" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C52" t="s" s="3">
+      <c r="C52" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D52" t="s" s="15">
+      <c r="D52" s="15" t="s">
         <v>214</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" t="s" s="3">
+      <c r="G52" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H52" t="s" s="3">
+      <c r="H52" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I52" t="s" s="3">
+      <c r="I52" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" ht="15.6" customHeight="1">
+      <c r="J52" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
-      <c r="B53" t="s" s="15">
+      <c r="B53" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C53" t="s" s="15">
+      <c r="C53" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D53" t="s" s="15">
+      <c r="D53" s="15" t="s">
         <v>217</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" t="s" s="3">
+      <c r="G53" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I53" t="s" s="3">
+      <c r="I53" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" ht="15.6" customHeight="1">
+      <c r="J53" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -3540,7 +3656,7 @@
       <c r="I54" s="20"/>
       <c r="J54" s="21"/>
     </row>
-    <row r="55" ht="15.6" customHeight="1">
+    <row r="55" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -3552,7 +3668,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" ht="15.6" customHeight="1">
+    <row r="56" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -3564,7 +3680,7 @@
       <c r="I56" s="21"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" ht="15.6" customHeight="1">
+    <row r="57" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -3576,7 +3692,7 @@
       <c r="I57" s="23"/>
       <c r="J57" s="24"/>
     </row>
-    <row r="58" ht="15.6" customHeight="1">
+    <row r="58" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
       <c r="B58" s="26"/>
       <c r="C58" s="26"/>
@@ -3588,7 +3704,7 @@
       <c r="I58" s="26"/>
       <c r="J58" s="27"/>
     </row>
-    <row r="59" ht="15.6" customHeight="1">
+    <row r="59" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
@@ -3600,7 +3716,7 @@
       <c r="I59" s="26"/>
       <c r="J59" s="27"/>
     </row>
-    <row r="60" ht="15.6" customHeight="1">
+    <row r="60" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25"/>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
@@ -3612,7 +3728,7 @@
       <c r="I60" s="26"/>
       <c r="J60" s="27"/>
     </row>
-    <row r="61" ht="15.6" customHeight="1">
+    <row r="61" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25"/>
       <c r="B61" s="26"/>
       <c r="C61" s="26"/>
@@ -3624,7 +3740,7 @@
       <c r="I61" s="26"/>
       <c r="J61" s="27"/>
     </row>
-    <row r="62" ht="15.6" customHeight="1">
+    <row r="62" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" s="26"/>
       <c r="C62" s="26"/>
@@ -3636,7 +3752,7 @@
       <c r="I62" s="26"/>
       <c r="J62" s="27"/>
     </row>
-    <row r="63" ht="15.6" customHeight="1">
+    <row r="63" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="25"/>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
@@ -3648,7 +3764,7 @@
       <c r="I63" s="26"/>
       <c r="J63" s="27"/>
     </row>
-    <row r="64" ht="15.6" customHeight="1">
+    <row r="64" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="28"/>
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
@@ -3662,30 +3778,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" location="" tooltip="" display="http://purl.org/coar/resource_type/c_2f33"/>
-    <hyperlink ref="H7" r:id="rId2" location="" tooltip="" display="http://purl.org/coar/resource_type/c_3248"/>
-    <hyperlink ref="H8" r:id="rId3" location="" tooltip="" display="http://purl.org/coar/resource_type/c_6501"/>
-    <hyperlink ref="H10" r:id="rId4" location="" tooltip="" display="http://purl.org/coar/resource_type/c_ddb1"/>
-    <hyperlink ref="H19" r:id="rId5" location="" tooltip="" display="http://purl.org/coar/resource_type/c_7bab"/>
-    <hyperlink ref="H24" r:id="rId6" location="" tooltip="" display="http://purl.org/coar/resource_type/c_7a1f"/>
-    <hyperlink ref="H25" r:id="rId7" location="" tooltip="" display="http://purl.org/coar/resource_type/c_bdcc"/>
-    <hyperlink ref="H26" r:id="rId8" location="" tooltip="" display="http://purl.org/coar/resource_type/c_46ec"/>
-    <hyperlink ref="H27" r:id="rId9" location="" tooltip="" display="http://purl.org/coar/resource_type/c_db06"/>
-    <hyperlink ref="H28" r:id="rId10" location="" tooltip="" display="http://purl.org/coar/resource_type/c_46ec"/>
-    <hyperlink ref="H30" r:id="rId11" location="" tooltip="" display="http://purl.org/coar/resource_type/c_393c"/>
-    <hyperlink ref="H31" r:id="rId12" location="" tooltip="" display="http://purl.org/coar/resource_type/c_393c"/>
-    <hyperlink ref="H32" r:id="rId13" location="" tooltip="" display="http://purl.org/coar/resource_type/c_393c"/>
-    <hyperlink ref="H33" r:id="rId14" location="" tooltip="" display="http://purl.org/coar/resource_type/c_393c"/>
-    <hyperlink ref="H36" r:id="rId15" location="" tooltip="" display="http://purl.org/coar/resource_type/c_18ws"/>
-    <hyperlink ref="H44" r:id="rId16" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
-    <hyperlink ref="H45" r:id="rId17" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
-    <hyperlink ref="H46" r:id="rId18" location="" tooltip="" display="http://purl.org/coar/resource_type/c_12cc"/>
-    <hyperlink ref="H47" r:id="rId19" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
-    <hyperlink ref="H48" r:id="rId20" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
-    <hyperlink ref="H49" r:id="rId21" location="" tooltip="" display="http://purl.org/coar/resource_type/c_1843"/>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H25" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H26" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H28" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H30" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H31" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H32" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H36" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H44" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H45" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H46" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H47" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H48" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H49" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/nr_vocabularies/fixtures/resource-types.xlsx
+++ b/nr_vocabularies/fixtures/resource-types.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\NUŠL\SW\INVENIO 3\taxonomie\nr-vocabularies\nr_vocabularies\fixtures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slasaj\Documents\GitHub\nr-vocabularies\nr_vocabularies\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72084CA5-FB69-42F0-A87E-53356A2F342D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48934CDF-59E3-4C7B-BFFA-8E2C3DD37E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5565" yWindow="-12960" windowWidth="20265" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nr" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="234">
   <si>
     <t>code</t>
   </si>
@@ -790,6 +790,42 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>computational-notebooks</t>
+  </si>
+  <si>
+    <t>Laboratorní deník</t>
+  </si>
+  <si>
+    <t>Computational notebooks</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>Přístroj</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>study-registration</t>
+  </si>
+  <si>
+    <t>Registrovaná studie</t>
+  </si>
+  <si>
+    <t>Study registration</t>
+  </si>
+  <si>
+    <t>research proposal</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_baaf</t>
+  </si>
+  <si>
+    <t>http://purl.org/coar/resource_type/c_393c</t>
   </si>
 </sst>
 </file>
@@ -844,7 +880,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -917,74 +953,6 @@
         <color indexed="10"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1040,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1074,12 +1042,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -2242,23 +2204,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.453125" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="25.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="25.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.21875" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.44140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="25.44140625" style="1"/>
+    <col min="8" max="8" width="39.1796875" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.453125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="25.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2276,7 +2238,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2294,7 +2256,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2306,7 +2268,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2318,7 +2280,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2350,7 +2312,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>13</v>
@@ -2378,7 +2340,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="15" t="s">
         <v>18</v>
@@ -2406,7 +2368,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="15" t="s">
         <v>25</v>
@@ -2432,7 +2394,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="15" t="s">
         <v>31</v>
@@ -2458,7 +2420,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="15" t="s">
         <v>36</v>
@@ -2486,7 +2448,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="15" t="s">
         <v>42</v>
@@ -2504,7 +2466,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>42</v>
       </c>
@@ -2532,7 +2494,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>42</v>
       </c>
@@ -2560,7 +2522,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>42</v>
       </c>
@@ -2588,7 +2550,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>42</v>
       </c>
@@ -2616,7 +2578,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="15" t="s">
         <v>63</v>
@@ -2644,7 +2606,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="15" t="s">
         <v>69</v>
@@ -2670,7 +2632,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="3" t="s">
         <v>74</v>
@@ -2696,7 +2658,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="15" t="s">
         <v>77</v>
@@ -2722,7 +2684,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="15" t="s">
         <v>81</v>
@@ -2748,7 +2710,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="15" t="s">
         <v>87</v>
@@ -2774,7 +2736,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="15" t="s">
         <v>91</v>
@@ -2800,7 +2762,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="15" t="s">
         <v>95</v>
@@ -2822,7 +2784,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>95</v>
       </c>
@@ -2850,7 +2812,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>95</v>
       </c>
@@ -2878,7 +2840,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>95</v>
       </c>
@@ -2908,7 +2870,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>95</v>
       </c>
@@ -2938,7 +2900,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>95</v>
       </c>
@@ -2968,7 +2930,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="15" t="s">
         <v>127</v>
@@ -2986,7 +2948,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>127</v>
       </c>
@@ -3014,7 +2976,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>127</v>
       </c>
@@ -3042,7 +3004,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>127</v>
       </c>
@@ -3072,7 +3034,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>127</v>
       </c>
@@ -3100,7 +3062,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="15" t="s">
         <v>146</v>
@@ -3118,7 +3080,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>146</v>
       </c>
@@ -3146,7 +3108,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>146</v>
       </c>
@@ -3174,7 +3136,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>146</v>
       </c>
@@ -3202,7 +3164,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>146</v>
       </c>
@@ -3232,7 +3194,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>146</v>
       </c>
@@ -3260,7 +3222,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>146</v>
       </c>
@@ -3288,7 +3250,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>146</v>
       </c>
@@ -3316,7 +3278,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
         <v>146</v>
       </c>
@@ -3344,7 +3306,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
       <c r="B43" s="15" t="s">
         <v>181</v>
@@ -3362,7 +3324,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>181</v>
       </c>
@@ -3392,7 +3354,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
         <v>181</v>
       </c>
@@ -3420,7 +3382,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
         <v>181</v>
       </c>
@@ -3448,7 +3410,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>181</v>
       </c>
@@ -3476,7 +3438,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
         <v>181</v>
       </c>
@@ -3504,7 +3466,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
         <v>181</v>
       </c>
@@ -3532,7 +3494,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>181</v>
       </c>
@@ -3562,7 +3524,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
         <v>181</v>
       </c>
@@ -3590,7 +3552,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
         <v>181</v>
       </c>
@@ -3618,7 +3580,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10"/>
       <c r="B53" s="15" t="s">
         <v>215</v>
@@ -3644,137 +3606,197 @@
         <v>221</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="21"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="27"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="27"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="27"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="27"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="27"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="27"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="30"/>
+    <row r="54" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3799,6 +3821,7 @@
     <hyperlink ref="H47" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="H48" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="H49" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H56" r:id="rId22" xr:uid="{E0A3F150-E7BC-4A17-8BF7-F5FB26C41F59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup orientation="portrait"/>
